--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -326,13 +326,203 @@
 </t>
   </si>
   <si>
-    <t>Organization.implicitRules</t>
+    <t>Organization.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Organization.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Organization.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Organization.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Organization.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -428,28 +618,13 @@
     <t>Organization.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:shortName</t>
@@ -478,14 +653,14 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
-    <t>FR Core Organization Description Extension</t>
-  </si>
-  <si>
-    <t>Description textuelle d'une organisation</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Organization.extension:usePeriod</t>
@@ -529,7 +704,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/StructureDefinition/organization-member}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member}
 </t>
   </si>
   <si>
@@ -574,10 +749,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -585,9 +756,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -636,35 +804,7 @@
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.identifier.use</t>
@@ -711,9 +851,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
@@ -1012,10 +1149,6 @@
     <t>Organization.identifier.type.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Code defined by a terminology system</t>
   </si>
   <si>
@@ -1407,7 +1540,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -1628,10 +1761,6 @@
   </si>
   <si>
     <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
   </si>
   <si>
     <t>Contact details (telephone, email, etc.)  for a contact</t>
@@ -2008,7 +2137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2041,7 +2170,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.38671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.5" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -2540,10 +2669,10 @@
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>102</v>
@@ -2554,9 +2683,7 @@
       <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>78</v>
@@ -2605,25 +2732,25 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2641,14 +2768,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2660,16 +2787,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2695,49 +2822,49 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2748,14 +2875,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2771,10 +2898,10 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>119</v>
@@ -2851,7 +2978,7 @@
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2862,21 +2989,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2885,19 +3012,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2947,25 +3074,25 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2976,10 +3103,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2990,7 +3117,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2999,18 +3126,20 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -3047,29 +3176,31 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3086,14 +3217,12 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3102,7 +3231,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -3111,18 +3240,20 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3159,19 +3290,19 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3180,10 +3311,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3200,13 +3331,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -3225,18 +3356,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3246,7 +3379,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3285,7 +3418,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3294,10 +3427,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3314,14 +3447,12 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3330,7 +3461,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3339,18 +3470,20 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3375,13 +3508,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3399,7 +3532,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3411,7 +3544,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3428,14 +3561,12 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3444,7 +3575,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3453,19 +3584,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3491,13 +3622,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3515,7 +3646,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3527,7 +3658,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3544,14 +3675,12 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3566,22 +3695,22 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3631,19 +3760,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3660,14 +3789,12 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3688,15 +3815,17 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3721,13 +3850,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3745,19 +3874,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3774,16 +3903,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3802,15 +3929,17 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3859,25 +3988,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3888,23 +4017,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3916,15 +4043,17 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3973,7 +4102,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3985,13 +4114,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4002,14 +4131,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4022,26 +4151,22 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4077,19 +4202,17 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4101,13 +4224,13 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4118,12 +4241,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4132,7 +4257,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4141,21 +4266,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4191,19 +4314,19 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4212,32 +4335,34 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4258,13 +4383,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4315,25 +4440,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4344,21 +4469,23 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4370,17 +4497,15 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4417,19 +4542,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4441,13 +4566,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4458,12 +4583,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4478,26 +4605,24 @@
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4521,11 +4646,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4543,25 +4670,25 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4575,9 +4702,11 @@
         <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4595,23 +4724,21 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4635,11 +4762,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4657,25 +4786,25 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4686,12 +4815,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4709,23 +4840,19 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4737,7 +4864,7 @@
         <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>78</v>
@@ -4773,28 +4900,28 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4802,12 +4929,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4825,20 +4954,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4851,7 +4978,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4887,28 +5014,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4916,12 +5043,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4939,16 +5068,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4999,28 +5128,28 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5028,44 +5157,46 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5113,28 +5244,28 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5142,14 +5273,12 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5158,7 +5287,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5170,17 +5299,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5217,19 +5346,19 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5238,30 +5367,30 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5284,13 +5413,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5341,7 +5470,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5359,7 +5488,7 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5370,14 +5499,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5396,16 +5525,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5443,19 +5572,19 @@
         <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5467,13 +5596,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5484,10 +5613,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5495,7 +5624,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5510,19 +5639,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5532,7 +5661,7 @@
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>78</v>
@@ -5547,11 +5676,11 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5569,7 +5698,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5584,10 +5713,10 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5598,10 +5727,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5609,7 +5738,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -5624,19 +5753,19 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5646,7 +5775,7 @@
         <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>78</v>
@@ -5661,11 +5790,11 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5683,7 +5812,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5698,10 +5827,10 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5712,10 +5841,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5723,7 +5852,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -5738,19 +5867,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5760,10 +5889,10 @@
         <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>78</v>
@@ -5799,7 +5928,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5814,13 +5943,13 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5828,10 +5957,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5839,7 +5968,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5854,16 +5983,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5877,7 +6006,7 @@
         <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>78</v>
@@ -5913,7 +6042,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5928,13 +6057,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5942,10 +6071,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5968,13 +6097,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6025,7 +6154,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6040,13 +6169,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6054,10 +6183,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6080,16 +6209,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6139,7 +6268,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6154,13 +6283,13 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6168,13 +6297,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
@@ -6196,17 +6325,17 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6255,7 +6384,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6264,30 +6393,30 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6310,13 +6439,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6367,7 +6496,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6385,7 +6514,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6396,14 +6525,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6422,16 +6551,16 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6469,19 +6598,19 @@
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6493,13 +6622,13 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6510,10 +6639,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6521,7 +6650,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6536,19 +6665,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6558,7 +6687,7 @@
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>78</v>
@@ -6573,11 +6702,11 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6595,7 +6724,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6610,10 +6739,10 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6624,10 +6753,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6650,19 +6779,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6672,7 +6801,7 @@
         <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>78</v>
@@ -6687,11 +6816,11 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6709,7 +6838,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6724,10 +6853,10 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6738,10 +6867,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6764,19 +6893,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6786,10 +6915,10 @@
         <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -6825,7 +6954,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6840,13 +6969,13 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6854,10 +6983,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6865,7 +6994,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>88</v>
@@ -6880,16 +7009,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6903,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>78</v>
@@ -6939,7 +7068,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6954,13 +7083,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6968,10 +7097,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6994,13 +7123,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7051,7 +7180,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7066,13 +7195,13 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7080,10 +7209,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7106,16 +7235,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7165,7 +7294,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7180,13 +7309,13 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7194,13 +7323,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -7222,17 +7351,17 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7281,7 +7410,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7290,30 +7419,30 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7336,13 +7465,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7393,7 +7522,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7411,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7422,14 +7551,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7448,16 +7577,16 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7495,19 +7624,19 @@
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7519,13 +7648,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7536,10 +7665,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7562,19 +7691,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7599,11 +7728,11 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7621,7 +7750,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7636,10 +7765,10 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7650,10 +7779,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7676,19 +7805,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7698,7 +7827,7 @@
         <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>78</v>
@@ -7713,11 +7842,11 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7735,7 +7864,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7750,10 +7879,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7764,10 +7893,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7790,19 +7919,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7812,10 +7941,10 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7980,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7866,13 +7995,13 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7880,10 +8009,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7906,16 +8035,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7929,7 +8058,7 @@
         <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>78</v>
@@ -7965,7 +8094,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7980,13 +8109,13 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7994,10 +8123,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8020,13 +8149,13 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8077,7 +8206,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8092,13 +8221,13 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8106,10 +8235,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8132,16 +8261,16 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8191,7 +8320,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8206,13 +8335,13 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8220,13 +8349,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8248,17 +8377,17 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8307,7 +8436,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8316,30 +8445,30 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8362,13 +8491,13 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8419,7 +8548,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8437,7 +8566,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8448,14 +8577,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8474,16 +8603,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8521,19 +8650,19 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8545,13 +8674,13 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8562,10 +8691,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8588,19 +8717,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8625,11 +8754,11 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8647,7 +8776,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8662,10 +8791,10 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8676,10 +8805,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8687,7 +8816,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
@@ -8702,19 +8831,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8724,7 +8853,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8739,11 +8868,11 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8761,7 +8890,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8776,10 +8905,10 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8790,10 +8919,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8801,7 +8930,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8813,19 +8942,23 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8834,10 +8967,10 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>78</v>
@@ -8873,7 +9006,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8885,16 +9018,16 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8902,21 +9035,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8925,19 +9058,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8951,7 +9084,7 @@
         <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>78</v>
@@ -8975,40 +9108,40 @@
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9016,10 +9149,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9030,7 +9163,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9042,20 +9175,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9103,13 +9232,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9118,13 +9247,13 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9132,10 +9261,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9155,18 +9284,20 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>198</v>
+        <v>299</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9215,7 +9346,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9227,16 +9358,16 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9244,14 +9375,16 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9267,21 +9400,21 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9317,19 +9450,19 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9338,30 +9471,30 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>329</v>
+        <v>250</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9381,23 +9514,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9406,7 +9535,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -9445,7 +9574,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9457,13 +9586,13 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9474,21 +9603,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9497,19 +9626,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>342</v>
+        <v>112</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9547,37 +9676,37 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>343</v>
+        <v>116</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9588,10 +9717,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9608,23 +9737,25 @@
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9649,13 +9780,11 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9673,7 +9802,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9688,10 +9817,10 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
@@ -9702,10 +9831,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9728,17 +9857,19 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O68" t="s" s="2">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9763,13 +9894,11 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9787,7 +9916,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9802,10 +9931,10 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9816,10 +9945,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9839,23 +9968,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9903,7 +10028,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>369</v>
+        <v>105</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9915,13 +10040,13 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9932,21 +10057,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -9955,23 +10080,21 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10007,37 +10130,37 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>378</v>
+        <v>116</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>380</v>
+        <v>106</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>
@@ -10048,10 +10171,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10059,10 +10182,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10074,19 +10197,19 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10096,10 +10219,10 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>78</v>
@@ -10135,13 +10258,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -10150,13 +10273,13 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>234</v>
+        <v>366</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10164,10 +10287,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10187,20 +10310,18 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10213,7 +10334,7 @@
         <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="U72" t="s" s="2">
         <v>78</v>
@@ -10249,7 +10370,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10261,16 +10382,16 @@
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10278,21 +10399,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10301,18 +10422,20 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10349,40 +10472,40 @@
         <v>78</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10390,10 +10513,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10416,18 +10539,20 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>255</v>
+        <v>373</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10436,7 +10561,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10475,7 +10600,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>258</v>
+        <v>378</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10490,13 +10615,13 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10504,14 +10629,12 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10520,7 +10643,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10532,18 +10655,18 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10591,31 +10714,31 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>192</v>
+        <v>387</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>193</v>
+        <v>388</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -10623,7 +10746,7 @@
         <v>389</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10643,19 +10766,21 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>198</v>
+        <v>391</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>199</v>
+        <v>392</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10703,7 +10828,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>200</v>
+        <v>394</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10715,13 +10840,13 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>201</v>
+        <v>396</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10732,21 +10857,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>202</v>
+        <v>398</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10755,21 +10880,21 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>203</v>
+        <v>399</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10805,37 +10930,37 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>206</v>
+        <v>402</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10846,10 +10971,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>207</v>
+        <v>406</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10866,25 +10991,25 @@
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10909,11 +11034,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10931,7 +11058,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -10946,10 +11073,10 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>131</v>
+        <v>413</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>215</v>
+        <v>414</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -10960,10 +11087,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10971,7 +11098,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -10986,19 +11113,19 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>219</v>
+        <v>418</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>220</v>
+        <v>419</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>221</v>
+        <v>420</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11008,7 +11135,7 @@
         <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>78</v>
@@ -11023,11 +11150,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11045,7 +11174,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>224</v>
+        <v>421</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11060,10 +11189,10 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>225</v>
+        <v>422</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11074,10 +11203,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11100,19 +11229,19 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11122,10 +11251,10 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="T80" t="s" s="2">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="U80" t="s" s="2">
         <v>78</v>
@@ -11161,7 +11290,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11176,13 +11305,13 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11190,10 +11319,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11216,16 +11345,16 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11239,7 +11368,7 @@
         <v>78</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>78</v>
@@ -11275,7 +11404,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11290,13 +11419,13 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11304,10 +11433,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11330,13 +11459,13 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11387,7 +11516,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11402,13 +11531,13 @@
         <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11416,10 +11545,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11442,16 +11571,16 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11501,7 +11630,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11516,13 +11645,13 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11530,12 +11659,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11544,38 +11675,34 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>403</v>
+        <v>242</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q84" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11619,39 +11746,39 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>399</v>
+        <v>238</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>405</v>
+        <v>246</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>406</v>
+        <v>247</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>408</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>409</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11662,7 +11789,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -11671,23 +11798,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>410</v>
+        <v>103</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
@@ -11711,11 +11834,13 @@
         <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z85" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>78</v>
@@ -11733,75 +11858,73 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>409</v>
+        <v>105</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>416</v>
+        <v>106</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>418</v>
+        <v>251</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>419</v>
+        <v>110</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>420</v>
+        <v>111</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
@@ -11837,40 +11960,40 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>418</v>
+        <v>116</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>424</v>
+        <v>106</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -11878,10 +12001,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>426</v>
+        <v>252</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11892,31 +12015,31 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>427</v>
+        <v>253</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>428</v>
+        <v>254</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>429</v>
+        <v>255</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>430</v>
+        <v>256</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -11941,13 +12064,11 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y87" s="2"/>
       <c r="Z87" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -11965,13 +12086,13 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>426</v>
+        <v>259</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
@@ -11980,10 +12101,10 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>424</v>
+        <v>260</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
@@ -11994,10 +12115,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>431</v>
+        <v>261</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12005,10 +12126,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12017,22 +12138,22 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>432</v>
+        <v>262</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>433</v>
+        <v>263</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>434</v>
+        <v>264</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>435</v>
+        <v>265</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>436</v>
+        <v>266</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>78</v>
@@ -12042,7 +12163,7 @@
         <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>78</v>
@@ -12057,13 +12178,11 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12081,28 +12200,28 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>431</v>
+        <v>268</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>438</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>439</v>
+        <v>269</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12110,10 +12229,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>442</v>
+        <v>270</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12121,10 +12240,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12133,22 +12252,22 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>443</v>
+        <v>130</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>444</v>
+        <v>271</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>445</v>
+        <v>272</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>446</v>
+        <v>273</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>447</v>
+        <v>274</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>78</v>
@@ -12158,10 +12277,10 @@
         <v>78</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>78</v>
@@ -12197,28 +12316,28 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>442</v>
+        <v>276</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>449</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>450</v>
+        <v>277</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>451</v>
+        <v>278</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>452</v>
+        <v>279</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12226,10 +12345,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>453</v>
+        <v>280</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12252,18 +12371,18 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>102</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>455</v>
+        <v>281</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
@@ -12275,7 +12394,7 @@
         <v>78</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>78</v>
@@ -12311,7 +12430,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>453</v>
+        <v>285</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12326,13 +12445,13 @@
         <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>405</v>
+        <v>286</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12340,10 +12459,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12363,16 +12482,16 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12423,7 +12542,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12435,16 +12554,16 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12452,21 +12571,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>460</v>
+        <v>297</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -12475,19 +12594,19 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12525,40 +12644,40 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12566,10 +12685,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12586,28 +12705,32 @@
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="R93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12651,7 +12774,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12660,30 +12783,30 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12694,7 +12817,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -12706,18 +12829,20 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
@@ -12741,11 +12866,11 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12763,13 +12888,13 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
@@ -12778,24 +12903,24 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>131</v>
+        <v>459</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12809,7 +12934,7 @@
         <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>78</v>
@@ -12818,18 +12943,20 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12877,7 +13004,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -12886,19 +13013,19 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -12906,10 +13033,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12920,7 +13047,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -12929,21 +13056,23 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -12991,13 +13120,13 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
@@ -13009,7 +13138,7 @@
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>131</v>
+        <v>467</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13020,10 +13149,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13046,19 +13175,19 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -13107,7 +13236,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13116,19 +13245,19 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>78</v>
+        <v>484</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13136,10 +13265,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13150,7 +13279,7 @@
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13162,16 +13291,20 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>197</v>
+        <v>486</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>198</v>
+        <v>487</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13219,28 +13352,28 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>200</v>
+        <v>485</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>78</v>
+        <v>493</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>201</v>
+        <v>494</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13248,21 +13381,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13271,21 +13404,21 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>203</v>
+        <v>498</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13333,28 +13466,28 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>206</v>
+        <v>496</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13362,46 +13495,42 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>495</v>
+        <v>103</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
@@ -13449,25 +13578,25 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>497</v>
+        <v>105</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
@@ -13478,21 +13607,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -13504,18 +13633,18 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13539,49 +13668,49 @@
         <v>78</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>502</v>
+        <v>78</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>498</v>
+        <v>116</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>504</v>
+        <v>106</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>78</v>
@@ -13592,10 +13721,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13615,21 +13744,21 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M102" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
@@ -13677,7 +13806,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13686,16 +13815,16 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>511</v>
+        <v>191</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -13706,10 +13835,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13720,7 +13849,7 @@
         <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -13729,21 +13858,21 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L103" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>516</v>
-      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
@@ -13767,13 +13896,11 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>78</v>
@@ -13791,13 +13918,13 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
@@ -13806,10 +13933,10 @@
         <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>518</v>
+        <v>191</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -13820,10 +13947,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13843,21 +13970,21 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>443</v>
+        <v>239</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
@@ -13905,7 +14032,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -13920,10 +14047,10 @@
         <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>523</v>
+        <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -13934,10 +14061,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13948,7 +14075,7 @@
         <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>78</v>
@@ -13957,21 +14084,21 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>526</v>
+        <v>102</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14019,13 +14146,13 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>78</v>
@@ -14037,17 +14164,1045 @@
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN105" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN105">
+  <autoFilter ref="A1:AN114">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14057,7 +15212,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12866,7 +12866,7 @@
         <v>78</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -978,7 +978,10 @@
     <t>idNatSt</t>
   </si>
   <si>
-    <t>Identifiant national de structure unique délivré par une autorité d'enregistrement tel que défini dans l'Annexe Transverse Source des données métier pour les professionnels et les structures.</t>
+    <t>Identifiant national de structure, à privilégier. L'idNatSt ne doit pas être construit, il peut être trouvé via l'API Annuaire Santé.</t>
+  </si>
+  <si>
+    <t>Identifiant national de structure unique délivré par une autorité d'enregistrement tel que défini dans l'Annexe Transverse Source des données métier pour les professionnels et les structures. L'idNatSt ne doit pas être construit, pour trouver l'identifiant d'une structure, il suffit de faire une requête via l'API Annuaire Santé. Il s'agit de l'identifiant national à privilégier.</t>
   </si>
   <si>
     <t>Organization.identifier:idNatSt.id</t>
@@ -6331,7 +6334,7 @@
         <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6413,7 +6416,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>250</v>
@@ -6525,7 +6528,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>251</v>
@@ -6639,7 +6642,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>252</v>
@@ -6687,7 +6690,7 @@
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>78</v>
@@ -6753,7 +6756,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>261</v>
@@ -6801,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>78</v>
@@ -6867,7 +6870,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>270</v>
@@ -6915,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>275</v>
@@ -6983,7 +6986,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>280</v>
@@ -7012,10 +7015,10 @@
         <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>283</v>
@@ -7097,7 +7100,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>289</v>
@@ -7209,7 +7212,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>297</v>
@@ -7323,13 +7326,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
@@ -7354,7 +7357,7 @@
         <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>241</v>
@@ -7439,7 +7442,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>250</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>251</v>
@@ -7665,7 +7668,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>252</v>
@@ -7779,7 +7782,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>261</v>
@@ -7827,7 +7830,7 @@
         <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>78</v>
@@ -7893,7 +7896,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>270</v>
@@ -7941,7 +7944,7 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>275</v>
@@ -8009,7 +8012,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>280</v>
@@ -8123,7 +8126,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>289</v>
@@ -8235,7 +8238,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>297</v>
@@ -8349,13 +8352,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8380,7 +8383,7 @@
         <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>241</v>
@@ -8465,7 +8468,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>250</v>
@@ -8577,7 +8580,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>251</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>252</v>
@@ -8805,7 +8808,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>261</v>
@@ -8853,7 +8856,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8919,7 +8922,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>270</v>
@@ -8967,7 +8970,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>275</v>
@@ -9035,7 +9038,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>280</v>
@@ -9149,7 +9152,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>289</v>
@@ -9261,7 +9264,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>297</v>
@@ -9375,13 +9378,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
@@ -9406,7 +9409,7 @@
         <v>239</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>241</v>
@@ -9491,7 +9494,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>250</v>
@@ -9603,7 +9606,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>251</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>252</v>
@@ -9831,7 +9834,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>261</v>
@@ -9945,10 +9948,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10057,10 +10060,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10171,10 +10174,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10200,16 +10203,16 @@
         <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10258,7 +10261,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10273,10 +10276,10 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>78</v>
@@ -10287,10 +10290,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10399,10 +10402,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10513,10 +10516,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10542,16 +10545,16 @@
         <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10561,7 +10564,7 @@
         <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>78</v>
@@ -10600,7 +10603,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10615,10 +10618,10 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10629,10 +10632,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10658,13 +10661,13 @@
         <v>102</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10714,7 +10717,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10729,10 +10732,10 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10743,10 +10746,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10772,14 +10775,14 @@
         <v>168</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10828,7 +10831,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10843,10 +10846,10 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10857,10 +10860,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10886,14 +10889,14 @@
         <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10942,7 +10945,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10957,10 +10960,10 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10971,10 +10974,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10997,19 +11000,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -11058,7 +11061,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11073,10 +11076,10 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
@@ -11087,10 +11090,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11116,16 +11119,16 @@
         <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>78</v>
@@ -11174,7 +11177,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11189,10 +11192,10 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
@@ -11203,7 +11206,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>270</v>
@@ -11251,7 +11254,7 @@
         <v>78</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>275</v>
@@ -11319,7 +11322,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>280</v>
@@ -11433,7 +11436,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>289</v>
@@ -11545,7 +11548,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>297</v>
@@ -11659,13 +11662,13 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>78</v>
@@ -11690,7 +11693,7 @@
         <v>239</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>241</v>
@@ -11775,7 +11778,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>250</v>
@@ -11887,7 +11890,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>251</v>
@@ -12001,7 +12004,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>252</v>
@@ -12115,7 +12118,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>261</v>
@@ -12163,7 +12166,7 @@
         <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>78</v>
@@ -12229,7 +12232,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>270</v>
@@ -12277,7 +12280,7 @@
         <v>78</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>275</v>
@@ -12345,7 +12348,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>280</v>
@@ -12459,7 +12462,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>289</v>
@@ -12571,7 +12574,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>297</v>
@@ -12685,10 +12688,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12711,70 +12714,70 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q93" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q93" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -12789,24 +12792,24 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12832,16 +12835,16 @@
         <v>262</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>78</v>
@@ -12870,7 +12873,7 @@
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>78</v>
@@ -12888,7 +12891,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -12903,24 +12906,24 @@
         <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12946,16 +12949,16 @@
         <v>102</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13004,7 +13007,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13019,13 +13022,13 @@
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13033,10 +13036,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13062,16 +13065,16 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13120,7 +13123,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13138,7 +13141,7 @@
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13149,10 +13152,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13175,19 +13178,19 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -13236,7 +13239,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13245,19 +13248,19 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13265,10 +13268,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13291,19 +13294,19 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13352,7 +13355,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13361,19 +13364,19 @@
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13381,10 +13384,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13407,17 +13410,17 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13466,7 +13469,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13481,10 +13484,10 @@
         <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>106</v>
@@ -13495,10 +13498,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13607,10 +13610,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13721,10 +13724,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13750,13 +13753,13 @@
         <v>102</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13806,7 +13809,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13815,7 +13818,7 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>100</v>
@@ -13835,10 +13838,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13864,13 +13867,13 @@
         <v>130</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13900,7 +13903,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>78</v>
@@ -13918,7 +13921,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -13947,10 +13950,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13976,13 +13979,13 @@
         <v>239</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14032,7 +14035,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14050,7 +14053,7 @@
         <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -14061,10 +14064,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14090,13 +14093,13 @@
         <v>102</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14146,7 +14149,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14175,10 +14178,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14201,19 +14204,19 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14262,7 +14265,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14280,7 +14283,7 @@
         <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>78</v>
@@ -14291,10 +14294,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14403,10 +14406,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14517,14 +14520,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14546,10 +14549,10 @@
         <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>112</v>
@@ -14604,7 +14607,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14633,10 +14636,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14662,14 +14665,14 @@
         <v>262</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14697,10 +14700,10 @@
         <v>150</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>78</v>
@@ -14718,7 +14721,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -14736,7 +14739,7 @@
         <v>78</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>78</v>
@@ -14747,10 +14750,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14773,17 +14776,17 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -14832,7 +14835,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -14847,10 +14850,10 @@
         <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>78</v>
@@ -14861,10 +14864,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14887,17 +14890,17 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -14946,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -14961,10 +14964,10 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>78</v>
@@ -14975,10 +14978,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15001,17 +15004,17 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -15060,7 +15063,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15075,10 +15078,10 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>78</v>
@@ -15089,10 +15092,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15115,17 +15118,17 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15174,7 +15177,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$150</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4152" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -682,7 +682,7 @@
     <t>openReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {note}
+    <t xml:space="preserve">Extension {note|5.2.0}
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -720,7 +720,7 @@
     <t>sae</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-sae-category}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-sae-category|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>raisonSociale</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-raison-sociale}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-raison-sociale|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -825,7 +825,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -853,7 +853,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1452,7 +1452,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-etablissement-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-etablissement-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1462,6 +1462,174 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType</t>
+  </si>
+  <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.id</t>
+  </si>
+  <si>
+    <t>Organization.type.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding</t>
+  </si>
+  <si>
+    <t>Organization.type.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type:organizationType.text</t>
+  </si>
+  <si>
+    <t>Organization.type.text</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS</t>
+  </si>
+  <si>
+    <t>secteurActiviteRASS</t>
+  </si>
+  <si>
+    <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.id</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type:secteurActiviteRASS.text</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS</t>
+  </si>
+  <si>
+    <t>categorieEtablissementRASS</t>
+  </si>
+  <si>
+    <t>Catégorie d'établissement du RASS</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.id</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.id</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.extension</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.system</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.version</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.code</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.display</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Organization.type:categorieEtablissementRASS.text</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -1507,7 +1675,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1543,7 +1711,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1579,7 +1747,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1631,9 +1799,6 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2140,7 +2305,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2149,9 +2314,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.15234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2159,7 +2324,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2174,7 +2339,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.5" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -12879,16 +13044,14 @@
         <v>78</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>453</v>
@@ -12918,14 +13081,16 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>462</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>78</v>
       </c>
@@ -12937,7 +13102,7 @@
         <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>78</v>
@@ -12946,19 +13111,19 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -12983,13 +13148,11 @@
         <v>78</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y95" s="2"/>
       <c r="Z95" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13007,39 +13170,39 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>469</v>
+        <v>106</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13050,7 +13213,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13065,17 +13228,13 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>471</v>
+        <v>103</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13123,25 +13282,25 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>470</v>
+        <v>105</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>468</v>
+        <v>106</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13152,14 +13311,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13178,20 +13337,18 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>476</v>
+        <v>109</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>477</v>
+        <v>110</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>478</v>
+        <v>111</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13227,19 +13384,19 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>475</v>
+        <v>116</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13248,19 +13405,19 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>482</v>
+        <v>117</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>484</v>
+        <v>106</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>485</v>
+        <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13268,10 +13425,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13279,10 +13436,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13291,22 +13448,22 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>488</v>
+        <v>361</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>489</v>
+        <v>362</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>490</v>
+        <v>363</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>491</v>
+        <v>364</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13355,7 +13512,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13364,19 +13521,19 @@
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>494</v>
+        <v>366</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>495</v>
+        <v>367</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13384,10 +13541,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13407,21 +13564,19 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>498</v>
+        <v>102</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>499</v>
+        <v>103</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>500</v>
+        <v>104</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>501</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13469,7 +13624,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>497</v>
+        <v>105</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13481,16 +13636,16 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13498,21 +13653,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13524,15 +13679,17 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13569,31 +13726,31 @@
         <v>78</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -13610,21 +13767,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -13633,21 +13790,23 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>110</v>
+        <v>374</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>111</v>
+        <v>375</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13683,37 +13842,37 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>116</v>
+        <v>379</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>106</v>
+        <v>381</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>78</v>
@@ -13724,10 +13883,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13753,13 +13912,13 @@
         <v>102</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>506</v>
+        <v>384</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>507</v>
+        <v>385</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>508</v>
+        <v>386</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13809,7 +13968,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>509</v>
+        <v>387</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13818,16 +13977,16 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>191</v>
+        <v>389</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -13838,10 +13997,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13864,18 +14023,18 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
@@ -13899,11 +14058,13 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>78</v>
@@ -13921,7 +14082,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>516</v>
+        <v>395</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -13936,10 +14097,10 @@
         <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -13950,10 +14111,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13976,18 +14137,18 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14035,7 +14196,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>521</v>
+        <v>403</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14050,10 +14211,10 @@
         <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>522</v>
+        <v>405</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -14064,10 +14225,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14090,18 +14251,20 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>102</v>
+        <v>408</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>524</v>
+        <v>409</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14149,7 +14312,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>527</v>
+        <v>413</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14164,10 +14327,10 @@
         <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>191</v>
+        <v>415</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -14178,10 +14341,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14192,7 +14355,7 @@
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14201,22 +14364,22 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>529</v>
+        <v>102</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>530</v>
+        <v>418</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>531</v>
+        <v>419</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>532</v>
+        <v>420</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>533</v>
+        <v>421</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14265,13 +14428,13 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
@@ -14280,10 +14443,10 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>534</v>
+        <v>424</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>78</v>
@@ -14294,12 +14457,14 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14317,19 +14482,23 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>103</v>
+        <v>490</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14353,13 +14522,11 @@
         <v>78</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>78</v>
@@ -14377,50 +14544,50 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>105</v>
+        <v>453</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AM107" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AN107" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -14432,17 +14599,15 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14491,19 +14656,19 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14520,14 +14685,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>538</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14540,26 +14705,24 @@
         <v>78</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>539</v>
+        <v>110</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>540</v>
+        <v>111</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O109" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>78</v>
       </c>
@@ -14595,19 +14758,19 @@
         <v>78</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>541</v>
+        <v>116</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14625,7 +14788,7 @@
         <v>78</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>78</v>
@@ -14636,10 +14799,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>542</v>
+        <v>494</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14647,7 +14810,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>88</v>
@@ -14659,20 +14822,22 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>543</v>
+        <v>361</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>545</v>
+        <v>364</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14697,13 +14862,13 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>547</v>
+        <v>78</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>78</v>
@@ -14721,13 +14886,13 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>542</v>
+        <v>365</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
@@ -14736,10 +14901,10 @@
         <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>548</v>
+        <v>367</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>78</v>
@@ -14750,10 +14915,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>549</v>
+        <v>495</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>549</v>
+        <v>472</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14776,18 +14941,16 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>550</v>
+        <v>102</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>551</v>
+        <v>103</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>552</v>
+        <v>104</v>
       </c>
       <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>553</v>
-      </c>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>78</v>
       </c>
@@ -14835,7 +14998,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>549</v>
+        <v>105</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -14847,13 +15010,13 @@
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>554</v>
+        <v>78</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>555</v>
+        <v>106</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>78</v>
@@ -14864,14 +15027,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>556</v>
+        <v>474</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -14890,18 +15053,18 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>476</v>
+        <v>109</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>557</v>
+        <v>110</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -14937,19 +15100,19 @@
         <v>78</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>556</v>
+        <v>116</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -14961,13 +15124,13 @@
         <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>560</v>
+        <v>78</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>561</v>
+        <v>106</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>78</v>
@@ -14978,10 +15141,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>562</v>
+        <v>497</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>562</v>
+        <v>476</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14989,7 +15152,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -15001,20 +15164,22 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>487</v>
+        <v>130</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>563</v>
+        <v>374</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O113" t="s" s="2">
-        <v>565</v>
+        <v>377</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -15063,7 +15228,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>562</v>
+        <v>379</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15078,10 +15243,10 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>566</v>
+        <v>380</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>567</v>
+        <v>381</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>78</v>
@@ -15092,10 +15257,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15106,7 +15271,7 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>78</v>
@@ -15115,21 +15280,21 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>569</v>
+        <v>102</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>570</v>
+        <v>384</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15177,13 +15342,13 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>568</v>
+        <v>387</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>78</v>
@@ -15192,20 +15357,4140 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="P115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Y119" s="2"/>
+      <c r="Z119" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AM114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AN119" t="s" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O121" s="2"/>
+      <c r="P121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O124" s="2"/>
+      <c r="P124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q126" s="2"/>
+      <c r="R126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="P127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q127" s="2"/>
+      <c r="R127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="P129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q129" s="2"/>
+      <c r="R129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="P130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q130" s="2"/>
+      <c r="R130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="O131" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="P131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="P132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q132" s="2"/>
+      <c r="R132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q133" s="2"/>
+      <c r="R133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q134" s="2"/>
+      <c r="R134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q135" s="2"/>
+      <c r="R135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q136" s="2"/>
+      <c r="R136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q137" s="2"/>
+      <c r="R137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q138" s="2"/>
+      <c r="R138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="O139" s="2"/>
+      <c r="P139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q139" s="2"/>
+      <c r="R139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y139" s="2"/>
+      <c r="Z139" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N140" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O140" s="2"/>
+      <c r="P140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q140" s="2"/>
+      <c r="R140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O141" s="2"/>
+      <c r="P141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q141" s="2"/>
+      <c r="R141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="P142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q142" s="2"/>
+      <c r="R142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q143" s="2"/>
+      <c r="R143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O144" s="2"/>
+      <c r="P144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q144" s="2"/>
+      <c r="R144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q145" s="2"/>
+      <c r="R145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="P146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q146" s="2"/>
+      <c r="R146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="P147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q147" s="2"/>
+      <c r="R147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="P148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q148" s="2"/>
+      <c r="R148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="P149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q149" s="2"/>
+      <c r="R149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="P150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q150" s="2"/>
+      <c r="R150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN150" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN114">
+  <autoFilter ref="A1:AN150">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15215,7 +19500,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI149">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
